--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-WebApp-BabyNames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43D9700-40ED-4895-B8C6-46B5B2067923}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750DB7F5-F910-495A-B4D9-F3BB2757B5EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F7E269C-0401-4F9A-B396-B01173B1F2D6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>URL</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>https://www.babynamesdirect.com/baby-names/telugu/girl/z</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/00.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/01.png</t>
   </si>
 </sst>
 </file>
@@ -570,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E520A6-B6CD-4558-97CE-36A2BAE21ED8}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,273 +597,283 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
         <v>53</v>
       </c>
     </row>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-WebApp-BabyNames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750DB7F5-F910-495A-B4D9-F3BB2757B5EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E29A1A-03D6-4E16-818B-3C544E1D8D6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F7E269C-0401-4F9A-B396-B01173B1F2D6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>URL</t>
   </si>
@@ -198,24 +198,172 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/01.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/a.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/a1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/b.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/b1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/c.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/c1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/d.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/d1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/e.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/e1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/f.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/f1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/g.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/g1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/h.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/h1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/i.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/i1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/j.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/j1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/k.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/k1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/l.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/l1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/m1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/m.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/n.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/n1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/o.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/o1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/p.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/p1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/q.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/q1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/r.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/r1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/s.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/s1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/t.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/t1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/u.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/u1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/v.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/v1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/w.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/w1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/x.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/x1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/y.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/y1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/z.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/z1.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,21 +398,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{59F8A144-1590-4ECD-8F88-8F2C7605251F}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{59F8A144-1590-4ECD-8F88-8F2C7605251F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -578,14 +722,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E520A6-B6CD-4558-97CE-36A2BAE21ED8}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,278 +753,426 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
-        <v>53</v>
-      </c>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-WebApp-BabyNames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C88983-2DD9-4A16-A804-F5AEEE714EAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EAD9A2-102D-4578-95EB-5423151D1024}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F7E269C-0401-4F9A-B396-B01173B1F2D6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>URL</t>
   </si>
@@ -48,6 +48,111 @@
   </si>
   <si>
     <t>https://www.babynamesdirect.com/baby-names/assamese/boy/a</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Gujarati_Boy.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Hindu_Boy.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Kannada_Boy.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Malayalam_Boy.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Marathi_Boy.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Oriya_Boy.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Punjabi_Boy.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Sanskrit_Boy.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Sindhi_Boy.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Tamil_Boy.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Telugu_Boy.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Bengali_Boy.png</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/bengali/boy/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/gujarati/boy/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/hindu/boy/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/kannada/boy/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/malayalam/boy/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/marathi/boy/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/oriya/boy/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/sanskrit/boy/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/sikh/boy/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/sindhi/boy/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/tamil/boy/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/telugu/boy/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/bengali/girl/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/gujarati/girl/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/hindu/girl/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/kannada/girl/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/malayalam/girl/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/marathi/girl/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/oriya/girl/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/sanskrit/girl/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/sikh/girl/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/sindhi/girl/a</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/tamil/girl/a</t>
   </si>
 </sst>
 </file>
@@ -414,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E520A6-B6CD-4558-97CE-36A2BAE21ED8}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,10 +559,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,15 +570,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -481,15 +586,15 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -497,15 +602,15 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -513,15 +618,15 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -529,15 +634,15 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,58 +650,110 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -670,6 +827,42 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-WebApp-BabyNames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EAD9A2-102D-4578-95EB-5423151D1024}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41036DC3-22BA-4030-9138-F7D17D1F022D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F7E269C-0401-4F9A-B396-B01173B1F2D6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>URL</t>
   </si>
@@ -38,12 +38,6 @@
     <t>MenuIcon</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/AssameseBoyNames.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/AssameseGirlNames.png</t>
-  </si>
-  <si>
     <t>https://www.babynamesdirect.com/baby-names/assamese/girl/a</t>
   </si>
   <si>
@@ -153,6 +147,12 @@
   </si>
   <si>
     <t>https://www.babynamesdirect.com/baby-names/tamil/girl/a</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Assamese_Boy.png</t>
+  </si>
+  <si>
+    <t>https://www.babynamesdirect.com/baby-names/telugu/girl/a</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,202 +543,171 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-WebApp-BabyNames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41036DC3-22BA-4030-9138-F7D17D1F022D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC59DC22-1FE5-47DA-AC6C-38294628C6D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F7E269C-0401-4F9A-B396-B01173B1F2D6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>URL</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>https://www.babynamesdirect.com/baby-names/telugu/girl/a</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Assamese_Girl.png</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,6 +553,9 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -563,6 +569,9 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -576,6 +585,9 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -589,6 +601,9 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -602,6 +617,9 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
@@ -615,6 +633,9 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -628,6 +649,9 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -641,6 +665,9 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -654,6 +681,9 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
@@ -667,6 +697,9 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -680,6 +713,9 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
@@ -693,6 +729,9 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
       <c r="B25" t="s">
         <v>38</v>
       </c>
@@ -706,6 +745,9 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-WebApp-BabyNames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC59DC22-1FE5-47DA-AC6C-38294628C6D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EF9C8C-C4B2-455E-8538-077E8235B3B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F7E269C-0401-4F9A-B396-B01173B1F2D6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>URL</t>
   </si>
@@ -156,6 +156,42 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Assamese_Girl.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Bengali_Girl.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Gujarati_Girl.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Hindu_Girl.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Kannada_Girl.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Malayalam_Girl.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Marathi_Girl.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Oriya_Girl.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Punjabi_Girl.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Sanskrit_Girl.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Sindhi_Girl.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Tamil_Girl.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-BabyNames/master/Telugu_Girl.png</t>
   </si>
 </sst>
 </file>
@@ -525,7 +561,7 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +606,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -586,7 +622,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -602,7 +638,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -618,7 +654,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -634,7 +670,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -650,7 +686,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -666,7 +702,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -682,7 +718,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
@@ -698,7 +734,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
@@ -714,7 +750,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -730,7 +766,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
@@ -746,7 +782,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
